--- a/WWW/posts/cytokine-storm/post_info.xlsx
+++ b/WWW/posts/cytokine-storm/post_info.xlsx
@@ -506,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
